--- a/Indicators/Indicators_Process_B_7_4_and_O_8_2/files/record.xlsx
+++ b/Indicators/Indicators_Process_B_7_4_and_O_8_2/files/record.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
   <si>
     <t>Км_Мастика по годам в %</t>
   </si>
@@ -29,9 +29,6 @@
     <t>Км_Биткор_Р по годам</t>
   </si>
   <si>
-    <t>Км_Транскор по годам в %</t>
-  </si>
-  <si>
     <t>Км_МБПР по годам в %</t>
   </si>
   <si>
@@ -39,9 +36,6 @@
   </si>
   <si>
     <t>Кп_Биткор_Р по годам в %</t>
-  </si>
-  <si>
-    <t>Кп_Транскор по годам в %</t>
   </si>
   <si>
     <t>Кп_МБПР по годам в %</t>
@@ -444,13 +438,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -460,11 +454,8 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,43 +463,23 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.2510450679948381</v>
-      </c>
-      <c r="D2">
-        <v>0.4771097804708744</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.2693663379544176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2510450679948381</v>
+        <v>0.2693663379544176</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3">
-        <v>0.114295949053212</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0.4771097804708744</v>
-      </c>
-      <c r="C4">
-        <v>0.114295949053212</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -518,91 +489,62 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0.6021996321154383</v>
+      </c>
+      <c r="D2">
+        <v>0.4962975605720698</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>0.5805283166254939</v>
-      </c>
-      <c r="D2">
-        <v>0.7874128328498905</v>
-      </c>
-      <c r="E2">
-        <v>0.5785831934188707</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="B3">
+        <v>0.6021996321154383</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.1065316575968481</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>0.5805283166254939</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>0.5167133662585581</v>
-      </c>
-      <c r="E3">
-        <v>0.1443053071359908</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B4">
-        <v>0.7874128328498905</v>
+        <v>0.4962975605720698</v>
       </c>
       <c r="C4">
-        <v>0.5167133662585581</v>
+        <v>0.1065316575968481</v>
       </c>
       <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0.304938433832509</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>0.5785831934188707</v>
-      </c>
-      <c r="C5">
-        <v>0.1443053071359908</v>
-      </c>
-      <c r="D5">
-        <v>0.304938433832509</v>
-      </c>
-      <c r="E5">
         <v>1</v>
       </c>
     </row>
@@ -621,29 +563,29 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.9737242806107477</v>
+        <v>0.9745189399127873</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.9737242806107477</v>
+        <v>0.9745189399127873</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -664,29 +606,29 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.7909383796051077</v>
+        <v>0.8199039642784992</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.7909383796051077</v>
+        <v>0.8199039642784992</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -707,18 +649,18 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -729,7 +671,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>-0.04054424254640971</v>
@@ -740,7 +682,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -758,18 +700,18 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -783,7 +725,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>0.2857634140157492</v>
@@ -797,7 +739,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>0.4656684743833448</v>
@@ -824,15 +766,15 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -843,7 +785,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>0.4697404501470051</v>
@@ -867,15 +809,15 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -886,7 +828,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>0.6854817450697706</v>

--- a/Indicators/Indicators_Process_B_7_4_and_O_8_2/files/record.xlsx
+++ b/Indicators/Indicators_Process_B_7_4_and_O_8_2/files/record.xlsx
@@ -15,13 +15,15 @@
     <sheet name="Кп_Мастика за полугодие в %" sheetId="6" r:id="rId6"/>
     <sheet name="Км_ПВХ за полугодие в %" sheetId="7" r:id="rId7"/>
     <sheet name="Кп_ПВХ за полугодие в %" sheetId="8" r:id="rId8"/>
+    <sheet name="Кп к Км год" sheetId="9" r:id="rId9"/>
+    <sheet name="Кп к Км полугодие" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="20">
   <si>
     <t>Км_Мастика по годам в %</t>
   </si>
@@ -487,6 +489,101 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0.4734619697947595</v>
+      </c>
+      <c r="D2">
+        <v>0.1965640418088102</v>
+      </c>
+      <c r="E2">
+        <v>0.6366930023370844</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>0.4734619697947595</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.6677667336814039</v>
+      </c>
+      <c r="E3">
+        <v>0.281947853352701</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>0.1965640418088102</v>
+      </c>
+      <c r="C4">
+        <v>0.6677667336814039</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0.3675047439607189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>0.6366930023370844</v>
+      </c>
+      <c r="C5">
+        <v>0.281947853352701</v>
+      </c>
+      <c r="D5">
+        <v>0.3675047439607189</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
@@ -514,7 +611,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.6021996321154383</v>
+        <v>0.602199632115438</v>
       </c>
       <c r="D2">
         <v>0.4962975605720698</v>
@@ -525,13 +622,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.6021996321154383</v>
+        <v>0.602199632115438</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.1065316575968481</v>
+        <v>0.1065316575968482</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -542,7 +639,7 @@
         <v>0.4962975605720698</v>
       </c>
       <c r="C4">
-        <v>0.1065316575968481</v>
+        <v>0.1065316575968482</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -577,7 +674,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.9745189399127873</v>
+        <v>0.9745189399127875</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -585,7 +682,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.9745189399127873</v>
+        <v>0.9745189399127875</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -620,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.8199039642784992</v>
+        <v>0.8199039642784994</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -628,7 +725,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.8199039642784992</v>
+        <v>0.8199039642784994</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -666,7 +763,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>-0.04054424254640971</v>
+        <v>-0.0405442425464097</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -674,7 +771,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>-0.04054424254640971</v>
+        <v>-0.0405442425464097</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -717,10 +814,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.2857634140157492</v>
+        <v>0.2857634140157493</v>
       </c>
       <c r="D2">
-        <v>0.4656684743833448</v>
+        <v>0.4656684743833447</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -728,7 +825,7 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>0.2857634140157492</v>
+        <v>0.2857634140157493</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -742,7 +839,7 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>0.4656684743833448</v>
+        <v>0.4656684743833447</v>
       </c>
       <c r="C4">
         <v>0.3084764497606841</v>
@@ -823,7 +920,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.6854817450697706</v>
+        <v>0.6854817450697704</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -831,9 +928,104 @@
         <v>19</v>
       </c>
       <c r="B3">
-        <v>0.6854817450697706</v>
+        <v>0.6854817450697704</v>
       </c>
       <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0.6289368904555915</v>
+      </c>
+      <c r="D2">
+        <v>0.5964308857401301</v>
+      </c>
+      <c r="E2">
+        <v>0.8028939814502917</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>0.6289368904555915</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.8724989864830782</v>
+      </c>
+      <c r="E3">
+        <v>0.7052813270106001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>0.5964308857401301</v>
+      </c>
+      <c r="C4">
+        <v>0.8724989864830782</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0.5450019813598457</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0.8028939814502917</v>
+      </c>
+      <c r="C5">
+        <v>0.7052813270106001</v>
+      </c>
+      <c r="D5">
+        <v>0.5450019813598457</v>
+      </c>
+      <c r="E5">
         <v>1</v>
       </c>
     </row>
